--- a/data.xlsx
+++ b/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -466,9 +466,23 @@
         <v>ty</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>t</v>
+      </c>
+      <c r="B6" t="str">
+        <v>4363773</v>
+      </c>
+      <c r="C6" t="str">
+        <v>f@gmail.com</v>
+      </c>
+      <c r="D6" t="str">
+        <v>r</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -480,9 +480,65 @@
         <v>r</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>yu</v>
+      </c>
+      <c r="B7" t="str">
+        <v>54654737</v>
+      </c>
+      <c r="C7" t="str">
+        <v>hr@digitalwin.in</v>
+      </c>
+      <c r="D7" t="str">
+        <v>test</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>yu</v>
+      </c>
+      <c r="B8" t="str">
+        <v>54654737</v>
+      </c>
+      <c r="C8" t="str">
+        <v>hr@digitalwin.in</v>
+      </c>
+      <c r="D8" t="str">
+        <v>n</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>yu</v>
+      </c>
+      <c r="B9" t="str">
+        <v>54654737</v>
+      </c>
+      <c r="C9" t="str">
+        <v>hr@digitalwin.in</v>
+      </c>
+      <c r="D9" t="str">
+        <v>n</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>yu</v>
+      </c>
+      <c r="B10" t="str">
+        <v>54654737</v>
+      </c>
+      <c r="C10" t="str">
+        <v>hr@digitalwin.in</v>
+      </c>
+      <c r="D10" t="str">
+        <v>w</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
   </ignoredErrors>
 </worksheet>
 </file>